--- a/Configurations/Amazon.xlsx
+++ b/Configurations/Amazon.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>PageName</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>add-to-cart-button</t>
+  </si>
+  <si>
+    <t>proceed_to_buy</t>
+  </si>
+  <si>
+    <t>proceed_to_checkout</t>
+  </si>
+  <si>
+    <t>select_address</t>
+  </si>
+  <si>
+    <t>proceed-to-buy-button</t>
+  </si>
+  <si>
+    <t>proceed-to-checkout-button</t>
+  </si>
+  <si>
+    <t>address-button</t>
   </si>
 </sst>
 </file>
@@ -1001,16 +1019,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="92.28515625" bestFit="1" customWidth="1"/>
@@ -1333,6 +1351,69 @@
         <v>53</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
